--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.98318866666667</v>
+        <v>21.106626</v>
       </c>
       <c r="N2">
-        <v>38.949566</v>
+        <v>63.319878</v>
       </c>
       <c r="O2">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="P2">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="Q2">
-        <v>1075.403861711528</v>
+        <v>2059.524910719383</v>
       </c>
       <c r="R2">
-        <v>9678.634755403757</v>
+        <v>18535.72419647444</v>
       </c>
       <c r="S2">
-        <v>0.06873810470049362</v>
+        <v>0.1097166435156321</v>
       </c>
       <c r="T2">
-        <v>0.06873810470049363</v>
+        <v>0.1097166435156321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H3">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.290191</v>
       </c>
       <c r="O3">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="P3">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="Q3">
-        <v>173.6731981122229</v>
+        <v>204.5930198678346</v>
       </c>
       <c r="R3">
-        <v>1563.058783010006</v>
+        <v>1841.337178810511</v>
       </c>
       <c r="S3">
-        <v>0.01110091464290264</v>
+        <v>0.01089924152400037</v>
       </c>
       <c r="T3">
-        <v>0.01110091464290264</v>
+        <v>0.01089924152400037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H4">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>134.239002</v>
       </c>
       <c r="O4">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="P4">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="Q4">
-        <v>3706.360711261881</v>
+        <v>4366.220803664672</v>
       </c>
       <c r="R4">
-        <v>33357.24640135693</v>
+        <v>39295.98723298205</v>
       </c>
       <c r="S4">
-        <v>0.236904682695714</v>
+        <v>0.2326007755152059</v>
       </c>
       <c r="T4">
-        <v>0.2369046826957141</v>
+        <v>0.2326007755152059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J5">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.98318866666667</v>
+        <v>21.106626</v>
       </c>
       <c r="N5">
-        <v>38.949566</v>
+        <v>63.319878</v>
       </c>
       <c r="O5">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="P5">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="Q5">
-        <v>1984.499615802416</v>
+        <v>3226.179043013106</v>
       </c>
       <c r="R5">
-        <v>17860.49654222174</v>
+        <v>29035.61138711796</v>
       </c>
       <c r="S5">
-        <v>0.1268460596301144</v>
+        <v>0.1718675671935591</v>
       </c>
       <c r="T5">
-        <v>0.1268460596301144</v>
+        <v>0.171867567193559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.290191</v>
       </c>
       <c r="O6">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="P6">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="Q6">
         <v>320.4883367076237</v>
@@ -818,10 +818,10 @@
         <v>2884.395030368613</v>
       </c>
       <c r="S6">
-        <v>0.02048510483199758</v>
+        <v>0.01707330870651425</v>
       </c>
       <c r="T6">
-        <v>0.02048510483199759</v>
+        <v>0.01707330870651425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J7">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>134.239002</v>
       </c>
       <c r="O7">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="P7">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="Q7">
         <v>6839.543421220654</v>
@@ -880,10 +880,10 @@
         <v>61555.89079098588</v>
       </c>
       <c r="S7">
-        <v>0.4371727390333192</v>
+        <v>0.3643615784640536</v>
       </c>
       <c r="T7">
-        <v>0.4371727390333193</v>
+        <v>0.3643615784640536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>77.473134</v>
       </c>
       <c r="I8">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J8">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.98318866666667</v>
+        <v>21.106626</v>
       </c>
       <c r="N8">
-        <v>38.949566</v>
+        <v>63.319878</v>
       </c>
       <c r="O8">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="P8">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="Q8">
-        <v>335.282771773316</v>
+        <v>545.0654881286281</v>
       </c>
       <c r="R8">
-        <v>3017.544945959844</v>
+        <v>4905.589393157652</v>
       </c>
       <c r="S8">
-        <v>0.02143074159483357</v>
+        <v>0.0290371607269338</v>
       </c>
       <c r="T8">
-        <v>0.02143074159483358</v>
+        <v>0.0290371607269338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>77.473134</v>
       </c>
       <c r="I9">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J9">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.290191</v>
       </c>
       <c r="O9">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="P9">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="Q9">
         <v>54.146756692066</v>
@@ -1004,10 +1004,10 @@
         <v>487.320810228594</v>
       </c>
       <c r="S9">
-        <v>0.003460974581928533</v>
+        <v>0.002884548941646925</v>
       </c>
       <c r="T9">
-        <v>0.003460974581928533</v>
+        <v>0.002884548941646925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>77.473134</v>
       </c>
       <c r="I10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>134.239002</v>
       </c>
       <c r="O10">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="P10">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="Q10">
         <v>1155.546243330252</v>
@@ -1066,10 +1066,10 @@
         <v>10399.91618997227</v>
       </c>
       <c r="S10">
-        <v>0.07386067828869639</v>
+        <v>0.061559175412454</v>
       </c>
       <c r="T10">
-        <v>0.0738606782886964</v>
+        <v>0.06155917541245401</v>
       </c>
     </row>
   </sheetData>
